--- a/documentation/guides/codelistings.xlsx
+++ b/documentation/guides/codelistings.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/Google Drive/Gdrive - Projects/en marcha/2020 - JRC - ELISE Lot 1 CfT/00.on-going work/Visualization Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/Google Drive/Gdrive - Projects/en marcha/2020 - JRC - ELISE Lot 1 CfT/00.on-going work/Visualization Tool/CodeListings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE99530-F509-6E4E-8FDE-2DC5CD6452F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451DD2C0-ED60-E34A-95EA-0376DB369180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2080" windowWidth="26080" windowHeight="20000" xr2:uid="{D528CDBD-8AB8-314B-91D8-60A0622718B7}"/>
+    <workbookView xWindow="2460" yWindow="1000" windowWidth="27680" windowHeight="20360" xr2:uid="{D528CDBD-8AB8-314B-91D8-60A0622718B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="codelistings" sheetId="1" r:id="rId1"/>
-    <sheet name="sources" sheetId="2" r:id="rId2"/>
+    <sheet name="JSON attributes" sheetId="3" r:id="rId1"/>
+    <sheet name="codelistings" sheetId="1" r:id="rId2"/>
+    <sheet name="sources &amp; encoding" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="186">
   <si>
     <t>Scope</t>
   </si>
@@ -48,36 +49,6 @@
     <t>Thematic area</t>
   </si>
   <si>
-    <t>General public services</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>Public order and safety</t>
-  </si>
-  <si>
-    <t>Economic affairs</t>
-  </si>
-  <si>
-    <t>Environmental protection</t>
-  </si>
-  <si>
-    <t>Housing and community amenities</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Recreation, culture and religion </t>
-  </si>
-  <si>
-    <t>Education </t>
-  </si>
-  <si>
-    <t>Social protection</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -261,18 +232,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Research and innovation = TRL1&amp;TRL2</t>
-  </si>
-  <si>
-    <t>Proof of concept = TRL3&amp;TRL4</t>
-  </si>
-  <si>
-    <t>Prototype = TRL5&amp;TRL6&amp;TRL7</t>
-  </si>
-  <si>
-    <t>Production System = TRL8&amp;TRL9</t>
-  </si>
-  <si>
     <t>Countries = NUTS0</t>
   </si>
   <si>
@@ -295,6 +254,345 @@
   </si>
   <si>
     <t>User-Oriented</t>
+  </si>
+  <si>
+    <t>10.1 - Sickness and disability 10.2 - Old age</t>
+  </si>
+  <si>
+    <t>10.3 - Survivors</t>
+  </si>
+  <si>
+    <t>10.6 - Housing</t>
+  </si>
+  <si>
+    <t>10.4 - Family and children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5 - Unemployment </t>
+  </si>
+  <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
+    <t>10.8 - R&amp;D Social protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9 - Social protection n.e.c </t>
+  </si>
+  <si>
+    <t>1 - General public services</t>
+  </si>
+  <si>
+    <t>2 - Defence</t>
+  </si>
+  <si>
+    <t>3 - Public order and safety</t>
+  </si>
+  <si>
+    <t>4 - Economic affairs</t>
+  </si>
+  <si>
+    <t>5 - Environmental protection</t>
+  </si>
+  <si>
+    <t>6 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>7 - Health</t>
+  </si>
+  <si>
+    <t>8 - Recreation, culture and religion </t>
+  </si>
+  <si>
+    <t>9 - Education </t>
+  </si>
+  <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 - Executive and legislative organs, financial and fiscal affairs, external affairs </t>
+  </si>
+  <si>
+    <t>1.2 - Foreign economic aid</t>
+  </si>
+  <si>
+    <t>1.3 - General services</t>
+  </si>
+  <si>
+    <t>1.4 - Basic research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 - R&amp;D General public services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 - General public services n.e.c. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 - Public debt transactions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8 - Transfers of a general character between different levels of government </t>
+  </si>
+  <si>
+    <t>2.1 - Military defence</t>
+  </si>
+  <si>
+    <t>2.2 - Civil defence</t>
+  </si>
+  <si>
+    <t>2.3 - Foreign military aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 - R&amp;D Defence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 - Defence n.e.c. </t>
+  </si>
+  <si>
+    <t>3.1 - Police services</t>
+  </si>
+  <si>
+    <t>3.2 - Fire-protection services</t>
+  </si>
+  <si>
+    <t>3.3 - Law courts</t>
+  </si>
+  <si>
+    <t>3.4 - Prisons</t>
+  </si>
+  <si>
+    <t>3.5 - R&amp;D Public order and safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 - Public order and safety n.e.c. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 - General economic, commercial and labour affairs </t>
+  </si>
+  <si>
+    <t>4.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>4.3 - Fuel and energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 - Mining, manufacturing and construction </t>
+  </si>
+  <si>
+    <t>4.5 - Transport</t>
+  </si>
+  <si>
+    <t>4.6 - Communication</t>
+  </si>
+  <si>
+    <t>4.7 - Other industries</t>
+  </si>
+  <si>
+    <t>4.8 - R&amp;D Economic affairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9 - Economic affairs n.e.c. </t>
+  </si>
+  <si>
+    <t>5.1 - Waste management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2 - Waste water management </t>
+  </si>
+  <si>
+    <t>5.3 - Pollution abatement</t>
+  </si>
+  <si>
+    <t>5.4 - Protection of biodiversity and landscape</t>
+  </si>
+  <si>
+    <t>5.5 - R&amp;D Environmental protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6 - Environmental protection n.e.c. </t>
+  </si>
+  <si>
+    <t>6.1 - Housing development</t>
+  </si>
+  <si>
+    <t>6.2 - Community development</t>
+  </si>
+  <si>
+    <t>6.3 - Water supply</t>
+  </si>
+  <si>
+    <t>6.4 - Street lighting</t>
+  </si>
+  <si>
+    <t>6.5 - R&amp;D Housing and community amenities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6 - Housing and community amenities n.e.c. </t>
+  </si>
+  <si>
+    <t>7.1 - Medical products, appliances and equipment</t>
+  </si>
+  <si>
+    <t>7.2 - Outpatient services</t>
+  </si>
+  <si>
+    <t>7.3 - Hospital services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4 - Public health services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5 - R&amp;D Health </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6 - Health n.e.c. </t>
+  </si>
+  <si>
+    <t>8.1 - Recreational and sporting services</t>
+  </si>
+  <si>
+    <t>8.2 - Cultural services</t>
+  </si>
+  <si>
+    <t>8.3 - Broadcasting and publishing services</t>
+  </si>
+  <si>
+    <t>8.4 - Religious and other community services</t>
+  </si>
+  <si>
+    <t>8.5 - R&amp;D Recreation, culture and religion</t>
+  </si>
+  <si>
+    <t>8.6 - Recreation, culture and religion n.e.c.</t>
+  </si>
+  <si>
+    <t>9.1 - Pre-primary and primary education</t>
+  </si>
+  <si>
+    <t>9.2 - Secondary education</t>
+  </si>
+  <si>
+    <t>9.3 - Post-secondary non-tertiary education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4 - Tertiary education </t>
+  </si>
+  <si>
+    <t>9.5 - Education not definable by level</t>
+  </si>
+  <si>
+    <t>9.6 - Subsidiary services to education</t>
+  </si>
+  <si>
+    <t>9.7 - R&amp;D Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8 - Education n.e.c. </t>
+  </si>
+  <si>
+    <t>4 - Production System = TRL8&amp;TRL9</t>
+  </si>
+  <si>
+    <t>3 - Prototype = TRL5&amp;TRL6&amp;TRL7</t>
+  </si>
+  <si>
+    <t>2 - Proof of concept = TRL3&amp;TRL4</t>
+  </si>
+  <si>
+    <t>1 - Research and innovation = TRL1&amp;TRL2</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>pub_date</t>
+  </si>
+  <si>
+    <t>geographic_extent</t>
+  </si>
+  <si>
+    <t>tech_readiness_level</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>public_value</t>
+  </si>
+  <si>
+    <t>theme_area</t>
+  </si>
+  <si>
+    <t>tech_trend</t>
+  </si>
+  <si>
+    <t>emerging_tech</t>
+  </si>
+  <si>
+    <t>name of the case</t>
+  </si>
+  <si>
+    <t>source of information</t>
+  </si>
+  <si>
+    <t>publication date</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>geographic extent</t>
+  </si>
+  <si>
+    <t>emerging technology</t>
+  </si>
+  <si>
+    <t>technology readiness level</t>
+  </si>
+  <si>
+    <t>public value type</t>
+  </si>
+  <si>
+    <t>thematic area</t>
+  </si>
+  <si>
+    <t>technology trend</t>
+  </si>
+  <si>
+    <t>JSON attribute name</t>
+  </si>
+  <si>
+    <t>Administrative Level</t>
+  </si>
+  <si>
+    <t>Technological Readiness</t>
+  </si>
+  <si>
+    <t>Thematic Area</t>
+  </si>
+  <si>
+    <t>&lt;no label&gt;</t>
+  </si>
+  <si>
+    <t>Link to source</t>
+  </si>
+  <si>
+    <t>Sub-Category (not in visualisation tool)</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>&lt;not shown&gt;</t>
+  </si>
+  <si>
+    <t>(unique) identifier</t>
+  </si>
+  <si>
+    <t>Visualization Tool equivalent label</t>
   </si>
 </sst>
 </file>
@@ -334,7 +632,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -519,19 +817,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -562,21 +847,51 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,12 +912,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,299 +1236,859 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9F8C9F-CBC6-494D-B5D1-CC55B79C20F1}">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BBB377-C0DA-8342-AC18-627501893850}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9F8C9F-CBC6-494D-B5D1-CC55B79C20F1}">
+  <dimension ref="A1:P80"/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>34</v>
+      <c r="C3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="14" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="D18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="14"/>
+      <c r="D23" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="14"/>
+      <c r="D27" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="14"/>
+      <c r="D32" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="14"/>
+      <c r="D39" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F14" s="14"/>
-      <c r="G14" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="14"/>
-      <c r="G16" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="14"/>
-      <c r="G18" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="12"/>
-      <c r="G20" s="4" t="s">
-        <v>23</v>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="14"/>
+      <c r="D43" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="14"/>
+      <c r="D44" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="14"/>
+      <c r="D45" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="14"/>
+      <c r="D46" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="14"/>
+      <c r="D47" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="14"/>
+      <c r="D48" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="14"/>
+      <c r="D50" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="14"/>
+      <c r="D51" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="14"/>
+      <c r="D52" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="14"/>
+      <c r="D53" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="14"/>
+      <c r="D54" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="14"/>
+      <c r="D55" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="14"/>
+      <c r="D57" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="14"/>
+      <c r="D58" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="14"/>
+      <c r="D60" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="14"/>
+      <c r="D61" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="14"/>
+      <c r="D62" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="15"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="14"/>
+      <c r="D64" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="14"/>
+      <c r="D65" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="14"/>
+      <c r="D66" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="14"/>
+      <c r="D67" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="14"/>
+      <c r="D68" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="14"/>
+      <c r="D69" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="14"/>
+      <c r="D70" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="14"/>
+      <c r="D71" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="14"/>
+      <c r="D73" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="14"/>
+      <c r="D74" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="14"/>
+      <c r="D75" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="14"/>
+      <c r="D76" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="14"/>
+      <c r="D77" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="14"/>
+      <c r="D78" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="14"/>
+      <c r="D79" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="12"/>
+      <c r="D80" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1216,12 +2096,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B4F8A1-FE26-5B42-AC5A-5F0D3262CD14}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,148 +2109,149 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>75</v>
+      <c r="A6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>76</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>79</v>
+      <c r="A10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A11" s="13"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="13" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
       <c r="D12" s="13" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/guides/codelistings.xlsx
+++ b/documentation/guides/codelistings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/Google Drive/Gdrive - Projects/en marcha/2020 - JRC - ELISE Lot 1 CfT/00.on-going work/Visualization Tool/CodeListings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451DD2C0-ED60-E34A-95EA-0376DB369180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B765DC4-DE63-5F45-A06F-EB50C307BBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1000" windowWidth="27680" windowHeight="20360" xr2:uid="{D528CDBD-8AB8-314B-91D8-60A0622718B7}"/>
+    <workbookView xWindow="8240" yWindow="500" windowWidth="27680" windowHeight="20360" xr2:uid="{D528CDBD-8AB8-314B-91D8-60A0622718B7}"/>
   </bookViews>
   <sheets>
     <sheet name="JSON attributes" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="192">
   <si>
     <t>Scope</t>
   </si>
@@ -593,13 +593,31 @@
   </si>
   <si>
     <t>Visualization Tool equivalent label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;only in description in the visualisation tool&gt; = LAU </t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>short description of the case</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Link to details</t>
+  </si>
+  <si>
+    <t>detailed analysis of the case study (only 10 selected case studies)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,6 +641,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -888,10 +914,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -923,8 +950,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1237,16 +1267,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BBB377-C0DA-8342-AC18-627501893850}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1284,102 +1314,124 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>180</v>
+      <c r="A4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2153,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2109,7 +2161,7 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -2169,7 +2221,7 @@
       <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="19"/>
@@ -2240,20 +2292,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="18"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="18"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{A9D2AAA2-69B1-DB4F-91FD-4D3B01E30D4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>